--- a/Data/L3/0 Summary.xlsx
+++ b/Data/L3/0 Summary.xlsx
@@ -2554,11 +2554,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="23511147"/>
-        <c:axId val="90643866"/>
+        <c:axId val="75094953"/>
+        <c:axId val="66948710"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23511147"/>
+        <c:axId val="75094953"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90643866"/>
+        <c:crossAx val="66948710"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2594,7 +2594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90643866"/>
+        <c:axId val="66948710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2631,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23511147"/>
+        <c:crossAx val="75094953"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4602,11 +4602,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="37150447"/>
-        <c:axId val="83719482"/>
+        <c:axId val="57865898"/>
+        <c:axId val="79802399"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37150447"/>
+        <c:axId val="57865898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,7 +4634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83719482"/>
+        <c:crossAx val="79802399"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4642,7 +4642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83719482"/>
+        <c:axId val="79802399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4679,7 +4679,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37150447"/>
+        <c:crossAx val="57865898"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7421,11 +7421,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="4178977"/>
-        <c:axId val="69665324"/>
+        <c:axId val="92075475"/>
+        <c:axId val="55104772"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4178977"/>
+        <c:axId val="92075475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7453,7 +7453,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69665324"/>
+        <c:crossAx val="55104772"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7461,7 +7461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69665324"/>
+        <c:axId val="55104772"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7498,7 +7498,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4178977"/>
+        <c:crossAx val="92075475"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9289,11 +9289,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="20778538"/>
-        <c:axId val="46413844"/>
+        <c:axId val="39207784"/>
+        <c:axId val="39164682"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20778538"/>
+        <c:axId val="39207784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9321,7 +9321,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46413844"/>
+        <c:crossAx val="39164682"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9329,7 +9329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46413844"/>
+        <c:axId val="39164682"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9366,7 +9366,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20778538"/>
+        <c:crossAx val="39207784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11343,11 +11343,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="97380787"/>
-        <c:axId val="9018528"/>
+        <c:axId val="97073466"/>
+        <c:axId val="21666367"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97380787"/>
+        <c:axId val="97073466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11375,7 +11375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9018528"/>
+        <c:crossAx val="21666367"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11383,7 +11383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9018528"/>
+        <c:axId val="21666367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11420,7 +11420,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97380787"/>
+        <c:crossAx val="97073466"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11524,6 +11524,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11619,6 +11620,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11714,6 +11716,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11809,6 +11812,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11904,6 +11908,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11999,6 +12004,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12094,6 +12100,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12189,6 +12196,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12284,6 +12292,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12359,7 +12368,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -12379,6 +12388,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12474,6 +12484,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12569,6 +12580,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12664,6 +12676,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12759,6 +12772,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12854,6 +12868,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -12949,6 +12964,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -13044,6 +13060,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -13139,6 +13156,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -13234,6 +13252,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -13291,11 +13310,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="40057166"/>
-        <c:axId val="77612093"/>
+        <c:axId val="27028360"/>
+        <c:axId val="81085651"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40057166"/>
+        <c:axId val="27028360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13323,7 +13342,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77612093"/>
+        <c:crossAx val="81085651"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13331,7 +13350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77612093"/>
+        <c:axId val="81085651"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13346,7 +13365,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13368,7 +13387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40057166"/>
+        <c:crossAx val="27028360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13409,7 +13428,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -13427,9 +13446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13437,8 +13456,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50258520" y="5459400"/>
-        <a:ext cx="5793840" cy="3238200"/>
+        <a:off x="50335920" y="5459400"/>
+        <a:ext cx="5802480" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13457,9 +13476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>144</xdr:col>
-      <xdr:colOff>716760</xdr:colOff>
+      <xdr:colOff>716400</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13467,8 +13486,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="113076000" y="5861880"/>
-        <a:ext cx="5781240" cy="3240360"/>
+        <a:off x="113249880" y="5861880"/>
+        <a:ext cx="5789880" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13487,9 +13506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>144</xdr:col>
-      <xdr:colOff>815760</xdr:colOff>
+      <xdr:colOff>815400</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13497,8 +13516,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="113175000" y="9676440"/>
-        <a:ext cx="5781240" cy="3240360"/>
+        <a:off x="113348880" y="9676440"/>
+        <a:ext cx="5789880" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13517,9 +13536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>145</xdr:col>
-      <xdr:colOff>667440</xdr:colOff>
+      <xdr:colOff>667080</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13527,8 +13546,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="113847120" y="13444200"/>
-        <a:ext cx="5780880" cy="3240360"/>
+        <a:off x="114022440" y="13444200"/>
+        <a:ext cx="5789520" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13547,9 +13566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>152</xdr:col>
-      <xdr:colOff>796680</xdr:colOff>
+      <xdr:colOff>796320</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13557,8 +13576,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="119714760" y="20734560"/>
-        <a:ext cx="5785560" cy="3238560"/>
+        <a:off x="119899080" y="20734560"/>
+        <a:ext cx="5793840" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13577,9 +13596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>156</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:colOff>504360</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13587,8 +13606,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="122737320" y="6836760"/>
-        <a:ext cx="5752800" cy="3241800"/>
+        <a:off x="122926680" y="6836760"/>
+        <a:ext cx="5761080" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13608,11 +13627,11 @@
   </sheetPr>
   <dimension ref="A1:FO118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FC50" activeCellId="0" sqref="FC50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BY9" activeCellId="0" sqref="BY9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14505,6 +14524,9 @@
       <c r="DZ3" s="16" t="n">
         <v>16.2591</v>
       </c>
+      <c r="EA3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="EB3" s="2" t="s">
         <v>21</v>
       </c>
@@ -14952,6 +14974,9 @@
       <c r="DZ4" s="16" t="n">
         <v>7.0436</v>
       </c>
+      <c r="EA4" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="EB4" s="2" t="s">
         <v>23</v>
       </c>
@@ -15375,6 +15400,9 @@
       <c r="DZ5" s="16" t="n">
         <v>77.7277</v>
       </c>
+      <c r="EA5" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="EB5" s="2" t="s">
         <v>25</v>
       </c>
@@ -15795,6 +15823,9 @@
       <c r="DZ6" s="16" t="n">
         <v>25.5907</v>
       </c>
+      <c r="EA6" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="EB6" s="2" t="s">
         <v>27</v>
       </c>
@@ -16235,6 +16266,9 @@
       <c r="DZ7" s="16" t="n">
         <v>7.6813</v>
       </c>
+      <c r="EA7" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="EB7" s="2" t="s">
         <v>29</v>
       </c>
@@ -16679,6 +16713,9 @@
       <c r="DZ8" s="16" t="n">
         <v>31.4806</v>
       </c>
+      <c r="EA8" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="EB8" s="2" t="s">
         <v>31</v>
       </c>
@@ -17128,6 +17165,9 @@
       <c r="DZ9" s="16" t="n">
         <v>1.4692</v>
       </c>
+      <c r="EA9" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="EB9" s="2" t="s">
         <v>33</v>
       </c>
@@ -17530,6 +17570,9 @@
       <c r="DZ10" s="16" t="n">
         <v>4.6116</v>
       </c>
+      <c r="EA10" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="EB10" s="2" t="s">
         <v>35</v>
       </c>
@@ -17941,6 +17984,9 @@
       <c r="DZ11" s="16" t="n">
         <v>51.2596</v>
       </c>
+      <c r="EA11" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="EB11" s="2" t="s">
         <v>37</v>
       </c>
@@ -18387,6 +18433,9 @@
       <c r="DZ12" s="16" t="n">
         <v>2.5378</v>
       </c>
+      <c r="EA12" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="EB12" s="2" t="s">
         <v>39</v>
       </c>
@@ -18834,6 +18883,9 @@
       <c r="DZ13" s="16" t="n">
         <v>5.4998</v>
       </c>
+      <c r="EA13" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="EB13" s="2" t="s">
         <v>41</v>
       </c>
@@ -19268,6 +19320,9 @@
       <c r="DZ14" s="16" t="n">
         <v>64.956</v>
       </c>
+      <c r="EA14" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="EB14" s="2" t="s">
         <v>43</v>
       </c>
@@ -19627,6 +19682,9 @@
       <c r="DZ15" s="16" t="n">
         <v>6.0503</v>
       </c>
+      <c r="EA15" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="EB15" s="2" t="s">
         <v>45</v>
       </c>
@@ -20065,6 +20123,9 @@
       <c r="DZ16" s="16" t="n">
         <v>9.5348</v>
       </c>
+      <c r="EA16" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="EB16" s="2" t="s">
         <v>47</v>
       </c>
@@ -20514,6 +20575,9 @@
       <c r="DZ17" s="16" t="n">
         <v>25.5785</v>
       </c>
+      <c r="EA17" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="EB17" s="2" t="s">
         <v>49</v>
       </c>
@@ -20945,6 +21009,9 @@
       </c>
       <c r="DZ18" s="16" t="n">
         <v>2.6137</v>
+      </c>
+      <c r="EA18" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="EB18" s="2" t="s">
         <v>53</v>
@@ -21369,6 +21436,9 @@
       <c r="DZ19" s="16" t="n">
         <v>5.1114</v>
       </c>
+      <c r="EA19" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="EB19" s="2" t="s">
         <v>54</v>
       </c>
@@ -21801,6 +21871,9 @@
       <c r="DZ20" s="16" t="n">
         <v>8.8727</v>
       </c>
+      <c r="EA20" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="EB20" s="2" t="s">
         <v>59</v>
       </c>
@@ -22244,6 +22317,9 @@
       <c r="DZ21" s="16" t="n">
         <v>28.2302</v>
       </c>
+      <c r="EA21" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="EB21" s="2" t="s">
         <v>60</v>
       </c>
@@ -22656,6 +22732,9 @@
       </c>
       <c r="DZ22" s="16" t="n">
         <v>30.183</v>
+      </c>
+      <c r="EA22" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="EB22" s="2" t="s">
         <v>64</v>
@@ -27888,7 +27967,7 @@
       <selection pane="topLeft" activeCell="Z17" activeCellId="0" sqref="Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.01"/>
